--- a/docs/shrcore/shr-core-MedicationAdministration-model.xlsx
+++ b/docs/shrcore/shr-core-MedicationAdministration-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$48</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="194">
   <si>
     <t>Path</t>
   </si>
@@ -195,6 +195,12 @@
     <t>http://hl7.org/fhir/ValueSet/medication-admin-status</t>
   </si>
   <si>
+    <t>shr-core-MedicationAdministration-model.statusReason</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
     <t>shr-core-MedicationAdministration-model.identifier</t>
   </si>
   <si>
@@ -376,10 +382,6 @@
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1553854
-</t>
-  </si>
-  <si>
     <t>shr-core-MedicationAdministration-model.participation.participationPeriod</t>
   </si>
   <si>
@@ -541,39 +543,6 @@
     <t>The amount of medication administered.</t>
   </si>
   <si>
-    <t>shr-core-MedicationAdministration-model.dosage.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>A code describing the item at a greater level of detail.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
-</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationAdministration-model.dosage.doseAndRate.doseAmount[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Range-model {[]} {[]}</t>
-  </si>
-  <si>
-    <t>The amount of medication taken per dose, as a quantity or range. Relative dose (e.g., per kg body weight or surface area) are indicated by specifying appropriate units (e.g., mg/kg or mg/m2 etc).</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationAdministration-model.dosage.doseAndRate.doseRate[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Ratio-model {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Range-model {[]} {[]}http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}</t>
-  </si>
-  <si>
-    <t>The speed with which the medication was or will be introduced into the patient. Typically the rate is used to describe an infusion, e.g,. 100 ml per 1 hour or 100 ml/hr.</t>
-  </si>
-  <si>
     <t>shr-core-MedicationAdministration-model.dosage.maxDosePerPeriod</t>
   </si>
   <si>
@@ -600,6 +569,42 @@
     <t>Upper limit on medication per lifetime of the patient.</t>
   </si>
   <si>
+    <t>shr-core-MedicationAdministration-model.medicationAdministrationPartOf[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure-model]]}
+</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular event is a component or step.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationAdministration-model.medicationAdministrationPartOfShr-core-MedicationAdministration-model</t>
+  </si>
+  <si>
+    <t>MedicationAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model]]}
+</t>
+  </si>
+  <si>
+    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationAdministration-model.medicationAdministrationPartOfShr-core-Procedure-model</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure-model]]}
+</t>
+  </si>
+  <si>
+    <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.</t>
+  </si>
+  <si>
     <t>shr-core-MedicationAdministration-model.category</t>
   </si>
   <si>
@@ -607,6 +612,41 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationAdministration-model.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource-model]]}
+</t>
+  </si>
+  <si>
+    <t>Additional information to support this request.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationAdministration-model.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model]]}
+</t>
+  </si>
+  <si>
+    <t>A specific durable physical device used in diagnosis or treatment. The value is the coding for a type of device, for example, a CPAP machine. The same device might be used on multiple patients.</t>
+  </si>
+  <si>
+    <t>A specific durable physical device used in diagnosis or treatment. The value is the coding for a type of device, for example, a CPAP machine. The same device might be used on multiple patients.
+Device status cannot be reconciled between Argonaut and US-Core, each having different required value sets.
+Device type has extensible mappings to different value sets in Argonaut and US-Core, however both value sets have identical SNOMED content (descendants of 49062001 (Device). We adopt the US-Core value set, which is allowable because the binding is extensible.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationAdministration-model.annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
   </si>
 </sst>
 </file>
@@ -755,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -764,8 +804,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="95.18359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="106.81640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.54296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -794,7 +834,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="72.74609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="71.03125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -1511,13 +1551,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1585,7 +1625,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1593,10 +1633,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>36</v>
@@ -1608,13 +1648,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>62</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1650,7 +1690,7 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
@@ -1665,13 +1705,13 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>36</v>
@@ -1682,7 +1722,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1690,7 +1730,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>41</v>
@@ -1705,13 +1745,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1747,7 +1787,7 @@
         <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1762,10 +1802,10 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>41</v>
@@ -1779,7 +1819,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1802,13 +1842,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1844,7 +1884,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1859,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1876,7 +1916,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1887,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>36</v>
@@ -1899,13 +1939,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1941,7 +1981,7 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1956,13 +1996,13 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>36</v>
@@ -1973,7 +2013,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1996,13 +2036,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2038,20 +2078,22 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -2068,20 +2110,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -2093,13 +2133,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2138,19 +2178,17 @@
         <v>36</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
@@ -2167,10 +2205,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>36</v>
@@ -2192,13 +2230,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2249,7 +2287,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -2266,10 +2304,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>36</v>
@@ -2291,10 +2329,10 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>92</v>
@@ -2348,7 +2386,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2365,15 +2403,17 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>41</v>
@@ -2391,10 +2431,10 @@
         <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2445,13 +2485,13 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>36</v>
@@ -2462,7 +2502,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2470,7 +2510,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>41</v>
@@ -2485,13 +2525,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2542,10 +2582,10 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>41</v>
@@ -2559,7 +2599,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2567,7 +2607,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>41</v>
@@ -2582,13 +2622,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2639,10 +2679,10 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>41</v>
@@ -2656,7 +2696,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2679,13 +2719,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2736,7 +2776,7 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
@@ -2753,7 +2793,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2764,7 +2804,7 @@
         <v>37</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>36</v>
@@ -2776,7 +2816,7 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>107</v>
@@ -2809,14 +2849,16 @@
         <v>36</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>36</v>
@@ -2831,13 +2873,13 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>36</v>
@@ -2848,7 +2890,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2871,13 +2913,13 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2904,13 +2946,11 @@
         <v>36</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>36</v>
@@ -2928,7 +2968,7 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>37</v>
@@ -2945,7 +2985,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2968,13 +3008,13 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3025,7 +3065,7 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>37</v>
@@ -3042,7 +3082,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3053,7 +3093,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>36</v>
@@ -3065,13 +3105,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3122,13 +3162,13 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>36</v>
@@ -3139,7 +3179,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3147,10 +3187,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>36</v>
@@ -3162,13 +3202,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3207,23 +3247,25 @@
         <v>36</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>36</v>
@@ -3234,11 +3276,9 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>36</v>
       </c>
@@ -3259,13 +3299,13 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3292,29 +3332,29 @@
         <v>36</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3331,15 +3371,17 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>41</v>
@@ -3354,13 +3396,13 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3387,13 +3429,11 @@
         <v>36</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>36</v>
@@ -3411,10 +3451,10 @@
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>41</v>
@@ -3428,7 +3468,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3439,7 +3479,7 @@
         <v>37</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>36</v>
@@ -3451,13 +3491,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3508,13 +3548,13 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>36</v>
@@ -3525,7 +3565,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3548,13 +3588,13 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3605,7 +3645,7 @@
         <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
@@ -3622,7 +3662,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3633,7 +3673,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>36</v>
@@ -3645,13 +3685,13 @@
         <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3678,11 +3718,13 @@
         <v>36</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>36</v>
@@ -3700,13 +3742,13 @@
         <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>36</v>
@@ -3717,7 +3759,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3740,13 +3782,13 @@
         <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3773,13 +3815,11 @@
         <v>36</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>36</v>
@@ -3797,7 +3837,7 @@
         <v>36</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>37</v>
@@ -3814,7 +3854,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3837,13 +3877,13 @@
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3894,13 +3934,13 @@
         <v>36</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>36</v>
@@ -3911,7 +3951,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -3934,13 +3974,13 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -3991,13 +4031,13 @@
         <v>36</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>36</v>
@@ -4008,7 +4048,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4019,7 +4059,7 @@
         <v>37</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>36</v>
@@ -4031,13 +4071,13 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4064,11 +4104,13 @@
         <v>36</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>36</v>
@@ -4086,13 +4128,13 @@
         <v>36</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>36</v>
@@ -4103,7 +4145,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4129,10 +4171,10 @@
         <v>45</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4159,14 +4201,14 @@
         <v>36</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>36</v>
@@ -4181,7 +4223,7 @@
         <v>36</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>37</v>
@@ -4198,7 +4240,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4224,10 +4266,10 @@
         <v>45</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4254,14 +4296,14 @@
         <v>36</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>36</v>
@@ -4276,7 +4318,7 @@
         <v>36</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>37</v>
@@ -4293,7 +4335,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4316,13 +4358,13 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4349,13 +4391,11 @@
         <v>36</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>36</v>
@@ -4373,7 +4413,7 @@
         <v>36</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>37</v>
@@ -4390,7 +4430,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4401,7 +4441,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>36</v>
@@ -4413,13 +4453,13 @@
         <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4446,14 +4486,16 @@
         <v>36</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>36</v>
@@ -4468,13 +4510,13 @@
         <v>36</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>36</v>
@@ -4485,7 +4527,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4496,7 +4538,7 @@
         <v>37</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>36</v>
@@ -4508,13 +4550,13 @@
         <v>36</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4565,13 +4607,13 @@
         <v>36</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>36</v>
@@ -4582,7 +4624,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4593,7 +4635,7 @@
         <v>37</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>36</v>
@@ -4605,13 +4647,13 @@
         <v>36</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4662,13 +4704,13 @@
         <v>36</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>36</v>
@@ -4679,7 +4721,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4702,13 +4744,13 @@
         <v>36</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -4759,7 +4801,7 @@
         <v>36</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>37</v>
@@ -4776,7 +4818,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -4787,7 +4829,7 @@
         <v>37</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>36</v>
@@ -4799,13 +4841,13 @@
         <v>36</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -4844,25 +4886,23 @@
         <v>36</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>36</v>
@@ -4873,18 +4913,20 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>36</v>
@@ -4899,10 +4941,10 @@
         <v>175</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -4953,13 +4995,13 @@
         <v>36</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>36</v>
@@ -4970,15 +5012,17 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>41</v>
@@ -4993,7 +5037,7 @@
         <v>36</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>180</v>
@@ -5026,45 +5070,433 @@
         <v>36</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI44" t="s" s="2">
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X45" s="2"/>
+      <c r="Y45" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI48" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI44">
+  <autoFilter ref="A1:AI48">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5074,7 +5506,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI47">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
